--- a/InputData/web-app/CID/Check Input Data.xlsx
+++ b/InputData/web-app/CID/Check Input Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\web-app\CID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\web-app\CID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163C0356-9559-4EF1-91ED-80F67B681CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF6D5F5-6CD1-4D7C-9883-903C8D974951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{20505A23-B03E-B349-AF36-73B0855D7AFA}"/>
+    <workbookView xWindow="34215" yWindow="1425" windowWidth="20070" windowHeight="12525" activeTab="2" xr2:uid="{20505A23-B03E-B349-AF36-73B0855D7AFA}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>CID Check Input Data</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>trans/BVTStL/BVTStL.csv</t>
-  </si>
-  <si>
-    <t>trans/PVTStL/PVTStL.csv</t>
   </si>
   <si>
     <t>trans/SRPbVT/SRPbVT.csv</t>
@@ -573,20 +570,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB40378-4D92-6B46-95EC-BF41FEF6A51A}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.69921875" style="2"/>
+    <col min="1" max="1" width="15.06640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -594,14 +591,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -617,55 +614,55 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.69921875" style="1"/>
+    <col min="1" max="1" width="20.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -675,184 +672,173 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C2FCA3-2250-8E45-A26E-181733CE1D14}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.69921875" style="1"/>
+    <col min="1" max="1" width="32.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -864,35 +850,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.69921875" style="1"/>
+    <col min="2" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
